--- a/JieLongMod_6/Excel/J剧情接力第一棒.xlsx
+++ b/JieLongMod_6/Excel/J剧情接力第一棒.xlsx
@@ -45,6 +45,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">RUN_SCRIPT_FUNC*plasticTest#AudioClose#1
 TELEPORT*suibianguan:740,1174
 </t>
@@ -1019,7 +1024,7 @@
     </r>
   </si>
   <si>
-    <t>[%arg_int_val1%][=]1:RUN_SCRIPT_FUNC*Phone/Command#SendSystemMessage#[$tagrole:id$]|（通话已结束。）</t>
+    <t>[%arg_int_val1%][=]1&amp;[$tagrole:id$][&lt;&gt;][$null$]:RUN_SCRIPT_FUNC*Phone/Command#SendSystemMessage#[$tagrole:id$]|（通话已结束。）</t>
   </si>
   <si>
     <t>第一棒修炼等级</t>
@@ -6902,9 +6907,9 @@
 SET_ROLE_ACTIVE*橘福福#-1
 SET_ROLE_ACTIVE*潘引壶#-1
 SET_ROLE_ACTIVE*叶释渊#-1
-CHG_ROLE_MERIT*橘福福#30#30
+CHG_ROLE_MERIT*橘福福#60#60
 CHG_ROLE_MERIT*潘引壶#10#10
-CHG_ROLE_MERIT*叶释渊#10#10
+CHG_ROLE_MERIT*叶释渊#30#30
 CHG_CAMP_REP*云岿山#25
 CHANGE_CAMP*云岿山#主角</t>
   </si>
@@ -6958,9 +6963,47 @@
     <t>*主角#我想邀请你和我一同前往空洞探索。</t>
   </si>
   <si>
-    <t>[%tagrole:player_relation_score%][&gt;=][&amp;[$tagrole:noble_rank$]*20&amp;]&amp;[$playerteam:role_vacancy$][&gt;]0:EVENT*云岿山角色邀请同行_同意
-[%tagrole:player_relation_score%][&gt;=][&amp;[$tagrole:noble_rank$]*20&amp;]&amp;[$playerteam:role_vacancy$][&lt;=]0:EVENT*云岿山角色邀请同行_已满
+    <r>
+      <t>[%tagrole:player_relation_score%][&gt;=]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[&amp;10+[$tagrole:noble_rank$]*15&amp;]&amp;[$playerteam:role_vacancy$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[&gt;]0:EVENT*云岿山角色邀请同行_同意
+[%tagrole:player_relation_score%][&gt;=]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[&amp;10+[$tagrole:noble_rank$]*15&amp;]&amp;[$playerteam:role_vacancy$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[&lt;=]0:EVENT*云岿山角色邀请同行_已满
 1[=]1:EVENT*云岿山角色邀请同行_拒绝</t>
+    </r>
   </si>
   <si>
     <t>云岿山角色邀请同行_同意</t>
@@ -8391,10 +8434,10 @@
   <sheetPr/>
   <dimension ref="A1:E335"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C325" sqref="C325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" outlineLevelCol="4"/>
@@ -12008,7 +12051,7 @@
       <c r="C330" s="35" t="s">
         <v>628</v>
       </c>
-      <c r="D330" s="35" t="s">
+      <c r="D330" s="34" t="s">
         <v>629</v>
       </c>
     </row>
